--- a/data/trans_dic/P2A_fisi_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07252234880213188</v>
+        <v>0.0772100301090608</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07728123844098955</v>
+        <v>0.07602155228978362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05860121579272964</v>
+        <v>0.05811405177310185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1351686658112083</v>
+        <v>0.1325237628510149</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08789702653274939</v>
+        <v>0.08557472600006827</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08529936485886912</v>
+        <v>0.08557690765168971</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07421536839788735</v>
+        <v>0.0746879266008617</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1582214835321988</v>
+        <v>0.155157466416785</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08809731948339085</v>
+        <v>0.08849556071453564</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08543312519257949</v>
+        <v>0.08670950236015225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07046650411831896</v>
+        <v>0.07068749066488764</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1536848035067806</v>
+        <v>0.1540876045796106</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1259028303534997</v>
+        <v>0.1277883015828156</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1153127934683152</v>
+        <v>0.1135044552335291</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0889326004460714</v>
+        <v>0.09004413764088161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2013801106045394</v>
+        <v>0.199703944941212</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1288340833356369</v>
+        <v>0.1286216904905858</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1239493291210852</v>
+        <v>0.1243626154550337</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1082838510094498</v>
+        <v>0.1077608210504284</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2079276157205914</v>
+        <v>0.2082958014855406</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1192338054629182</v>
+        <v>0.1197741141893531</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1136635332764229</v>
+        <v>0.1134684942010647</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09408373576561686</v>
+        <v>0.09513716724082226</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1961663704343545</v>
+        <v>0.194414288100115</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04054108642588402</v>
+        <v>0.04121306441789741</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06334833485462787</v>
+        <v>0.06374086805504998</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03325153496118789</v>
+        <v>0.03190433493124685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1162154929658273</v>
+        <v>0.1149817136082818</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03639627386717578</v>
+        <v>0.03652676282900302</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07977736681795114</v>
+        <v>0.08059270470737707</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04693265876216242</v>
+        <v>0.04816804243326897</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.116197965356219</v>
+        <v>0.1176338855220392</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04226723568940358</v>
+        <v>0.04290507301845555</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07681282547110482</v>
+        <v>0.07692368870427599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04372714579230299</v>
+        <v>0.04361894004566776</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1213651224365351</v>
+        <v>0.1210435650930395</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06833366378603807</v>
+        <v>0.06995796494079323</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1031922237313527</v>
+        <v>0.1024871412662338</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06149510178476594</v>
+        <v>0.06009928920844376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1617339679810074</v>
+        <v>0.1622128551014672</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06229024165042931</v>
+        <v>0.06321255779110632</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1164848516077233</v>
+        <v>0.1180796995513946</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07934826717513044</v>
+        <v>0.07916523342763634</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1485240611611538</v>
+        <v>0.1502456720517254</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0610194708268932</v>
+        <v>0.06198894224970419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1057799949209179</v>
+        <v>0.1035923904199669</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06435501348812039</v>
+        <v>0.0648727356968485</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1506098886329184</v>
+        <v>0.1481309613189198</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.05111539217231328</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08312809713622188</v>
+        <v>0.08312809713622191</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03611253060265941</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02096156036479532</v>
+        <v>0.01938786239863717</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0410725247357062</v>
+        <v>0.041299812990774</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03231070724878574</v>
+        <v>0.03351808954702135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06516827229371171</v>
+        <v>0.06611385737617259</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03219220905956128</v>
+        <v>0.03262971374193083</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04947937263346955</v>
+        <v>0.04991041405491083</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03622468462996469</v>
+        <v>0.03591825950048924</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07029800878546541</v>
+        <v>0.0694296679930957</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02900378945954708</v>
+        <v>0.02801309825391196</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04974662248556085</v>
+        <v>0.05026517236044872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03856472779439423</v>
+        <v>0.03930529957812047</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07266035199532621</v>
+        <v>0.07161686779433174</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04023452173084242</v>
+        <v>0.0393917576900811</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07123652985219565</v>
+        <v>0.07276293127121526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06418876198414918</v>
+        <v>0.06543489439206902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1010738084550504</v>
+        <v>0.09946329896944932</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05957458357712505</v>
+        <v>0.05917666122845515</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0844742508803679</v>
+        <v>0.08362314630885385</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0694551953520922</v>
+        <v>0.06847367438458267</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09732330554626976</v>
+        <v>0.09878399266305296</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04443539714456297</v>
+        <v>0.04432209057236866</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07371027292271398</v>
+        <v>0.07332882480034557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0614537093027756</v>
+        <v>0.06264450745352448</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09490193023826748</v>
+        <v>0.09393845790828094</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.05353297822590814</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08174634101708003</v>
+        <v>0.08174634101708002</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01359345821450046</v>
+        <v>0.01226839192438111</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02637170127749093</v>
+        <v>0.02655784657696555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03066700738396559</v>
+        <v>0.03027674331676147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06411535945798878</v>
+        <v>0.06659359463325014</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02125687041201783</v>
+        <v>0.02199189002646503</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06295691102669218</v>
+        <v>0.06470993592007383</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03960297875519863</v>
+        <v>0.04045248831656762</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06808260944574875</v>
+        <v>0.06734111267428665</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02115911972643659</v>
+        <v>0.02028363429129633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04859722345857984</v>
+        <v>0.04866173613697659</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03892296822121042</v>
+        <v>0.03974939102370751</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07001816973141801</v>
+        <v>0.07130924462346255</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0446268050134604</v>
+        <v>0.04538255962275052</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06905749290929666</v>
+        <v>0.06763992064213616</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0694898746855782</v>
+        <v>0.06964618580710177</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09979716140995328</v>
+        <v>0.101555451179889</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0648143656531798</v>
+        <v>0.0646366794432454</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.12135907188774</v>
+        <v>0.1267725260557724</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08518505530480962</v>
+        <v>0.08604383285695381</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09783657850526753</v>
+        <v>0.09888842141345287</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04557956083894463</v>
+        <v>0.04505651172060706</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08777614879839639</v>
+        <v>0.08294449986382856</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0688088043463196</v>
+        <v>0.07094998332422726</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09285777617036285</v>
+        <v>0.09402916793769561</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0423320650648063</v>
+        <v>0.04171976807583392</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06440858770251731</v>
+        <v>0.0653591294145297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04797410385168206</v>
+        <v>0.04774599791237704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09921931530980878</v>
+        <v>0.09874570344613898</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05283972190762114</v>
+        <v>0.05445119755791489</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08061276793302546</v>
+        <v>0.08035239375458796</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06077341517985466</v>
+        <v>0.06115344929841632</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1058624389813012</v>
+        <v>0.1053965708897536</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05069752453557825</v>
+        <v>0.05032819153279841</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07574969488362519</v>
+        <v>0.0750987133292453</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05710469367579439</v>
+        <v>0.0564526120127251</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.104415384304485</v>
+        <v>0.104718799071667</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05784755913469109</v>
+        <v>0.05717617567761886</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08285955049397063</v>
+        <v>0.0829916245259839</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0638832506842969</v>
+        <v>0.06361511397710139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.12053548511519</v>
+        <v>0.1204281278582047</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07082285176951042</v>
+        <v>0.07184724749126661</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1004345323185815</v>
+        <v>0.1001667397842275</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07853708375655824</v>
+        <v>0.07849425141434938</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1232896753670805</v>
+        <v>0.1226583712456322</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06162637178502658</v>
+        <v>0.06207189456757731</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08929082246548127</v>
+        <v>0.08949877207602612</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06920217984496931</v>
+        <v>0.0685796279168029</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1186072443482354</v>
+        <v>0.1187595748164042</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42363</v>
+        <v>45102</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>80677</v>
+        <v>79362</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>66102</v>
+        <v>65552</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>67414</v>
+        <v>66095</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>81070</v>
+        <v>78928</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>95529</v>
+        <v>95840</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>93479</v>
+        <v>94074</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>98664</v>
+        <v>96753</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>132716</v>
+        <v>133316</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>184866</v>
+        <v>187627</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>168243</v>
+        <v>168770</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>172484</v>
+        <v>172936</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>73545</v>
+        <v>74646</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>120379</v>
+        <v>118491</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>100316</v>
+        <v>101570</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>100436</v>
+        <v>99600</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>118828</v>
+        <v>118632</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>138814</v>
+        <v>139277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>136390</v>
+        <v>135731</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>129660</v>
+        <v>129889</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>179623</v>
+        <v>180437</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>245952</v>
+        <v>245530</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>224630</v>
+        <v>227146</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>220161</v>
+        <v>218195</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>43699</v>
+        <v>44423</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>61896</v>
+        <v>62279</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30220</v>
+        <v>28995</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>111583</v>
+        <v>110398</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38490</v>
+        <v>38628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>87297</v>
+        <v>88190</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47237</v>
+        <v>48480</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>129659</v>
+        <v>131262</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>90259</v>
+        <v>91621</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>159105</v>
+        <v>159335</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>83751</v>
+        <v>83543</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>251952</v>
+        <v>251285</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73656</v>
+        <v>75407</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>100826</v>
+        <v>100137</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>55888</v>
+        <v>54620</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>155287</v>
+        <v>155747</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>65874</v>
+        <v>66850</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>127465</v>
+        <v>129210</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>79862</v>
+        <v>79678</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>165730</v>
+        <v>167651</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>130303</v>
+        <v>132373</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>219106</v>
+        <v>214575</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>123259</v>
+        <v>124251</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>312664</v>
+        <v>307518</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23510</v>
+        <v>21745</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36354</v>
+        <v>36555</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26616</v>
+        <v>27611</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68197</v>
+        <v>69187</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31997</v>
+        <v>32432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>43334</v>
+        <v>43711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27931</v>
+        <v>27695</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73647</v>
+        <v>72737</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>61359</v>
+        <v>59263</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>87599</v>
+        <v>88512</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>61504</v>
+        <v>62685</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>152160</v>
+        <v>149974</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45127</v>
+        <v>44182</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63053</v>
+        <v>64404</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52876</v>
+        <v>53903</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>105772</v>
+        <v>104086</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59214</v>
+        <v>58818</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>73982</v>
+        <v>73237</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53554</v>
+        <v>52797</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>101960</v>
+        <v>103490</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>94005</v>
+        <v>93765</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>129797</v>
+        <v>129126</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>98007</v>
+        <v>99907</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>198736</v>
+        <v>196718</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6079</v>
+        <v>5486</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13266</v>
+        <v>13359</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15539</v>
+        <v>15341</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>62572</v>
+        <v>64991</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7252</v>
+        <v>7503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>28503</v>
+        <v>29297</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19393</v>
+        <v>19810</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>61979</v>
+        <v>61304</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16681</v>
+        <v>15991</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>46447</v>
+        <v>46509</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38783</v>
+        <v>39606</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>132073</v>
+        <v>134509</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19957</v>
+        <v>20295</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34738</v>
+        <v>34024</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35211</v>
+        <v>35290</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>97395</v>
+        <v>99111</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22112</v>
+        <v>22051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>54944</v>
+        <v>57394</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41715</v>
+        <v>42135</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>89065</v>
+        <v>90023</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>35933</v>
+        <v>35521</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>83893</v>
+        <v>79275</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>68561</v>
+        <v>70694</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>175155</v>
+        <v>177365</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>136768</v>
+        <v>134789</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>219578</v>
+        <v>222819</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>161542</v>
+        <v>160774</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>345411</v>
+        <v>343762</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>175162</v>
+        <v>180504</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>285589</v>
+        <v>284666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>214335</v>
+        <v>215675</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>391417</v>
+        <v>389695</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>331856</v>
+        <v>329438</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>526602</v>
+        <v>522076</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>393684</v>
+        <v>389189</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>749567</v>
+        <v>751745</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>186896</v>
+        <v>184726</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>282480</v>
+        <v>282930</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>215113</v>
+        <v>214210</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>419618</v>
+        <v>419245</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>234776</v>
+        <v>238171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>355812</v>
+        <v>354863</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>276984</v>
+        <v>276833</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>455853</v>
+        <v>453519</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>403394</v>
+        <v>406310</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>620738</v>
+        <v>622184</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>477085</v>
+        <v>472793</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>851446</v>
+        <v>852539</v>
       </c>
     </row>
     <row r="24">
